--- a/Base/Teams/Browns/Team Data.xlsx
+++ b/Base/Teams/Browns/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5</t>
-  </si>
-  <si>
-    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8</t>
-  </si>
-  <si>
-    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4</t>
-  </si>
-  <si>
-    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3</t>
+    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1</t>
+  </si>
+  <si>
+    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4</t>
+  </si>
+  <si>
+    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1</t>
+  </si>
+  <si>
+    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 64 68 67 60 60 64 68 70 64 66 66 66 74 69 57 58 64 47 51 55 56 57 65 60 61 64 56 58 64 64 64 65 61 59 64 66 66 66 64 62 67 63 65 68 70 67 67 59 61 65 64 64 65 68 66 64 60 65 65 59 64 62 61 63 62 57 60 64 64 62 63 54 65 64</t>
-  </si>
-  <si>
-    <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23</t>
-  </si>
-  <si>
-    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15</t>
-  </si>
-  <si>
-    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41</t>
-  </si>
-  <si>
-    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0</t>
-  </si>
-  <si>
-    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3</t>
+    <t>66 64 68 67 60 60 64 68 70 64 66 66 66 74 69 57 58 64 47 51 55 56 57 65 60 61 64 56 58 64 64 64 65 61 59 64 66 66 66 64 62 67 63 65 68 70 67 67 59 61 65 64 64 65 68 66 64 60 65 65 59 64 62 61 63 62 57 60 64 64 62 63 54 65 64 67 55 65</t>
+  </si>
+  <si>
+    <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23 19 12 23</t>
+  </si>
+  <si>
+    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6</t>
+  </si>
+  <si>
+    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43</t>
+  </si>
+  <si>
+    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,37 +668,37 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="M2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="N2">
         <v>32</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="Q2">
-        <v>882</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>60</v>
       </c>
       <c r="F3">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="M2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="N2">
         <v>33</v>
       </c>
       <c r="O2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q2">
-        <v>825</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>415</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1245,10 +1245,10 @@
         <v>19</v>
       </c>
       <c r="L2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2">
         <v>9</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1354,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Browns/Team Data.xlsx
+++ b/Base/Teams/Browns/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1</t>
-  </si>
-  <si>
-    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4</t>
-  </si>
-  <si>
-    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1</t>
-  </si>
-  <si>
-    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14</t>
+    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0</t>
+  </si>
+  <si>
+    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6</t>
+  </si>
+  <si>
+    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3</t>
+  </si>
+  <si>
+    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 64 68 67 60 60 64 68 70 64 66 66 66 74 69 57 58 64 47 51 55 56 57 65 60 61 64 56 58 64 64 64 65 61 59 64 66 66 66 64 62 67 63 65 68 70 67 67 59 61 65 64 64 65 68 66 64 60 65 65 59 64 62 61 63 62 57 60 64 64 62 63 54 65 64 67 55 65</t>
-  </si>
-  <si>
-    <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23 19 12 23</t>
-  </si>
-  <si>
-    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6</t>
-  </si>
-  <si>
-    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43</t>
-  </si>
-  <si>
-    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6</t>
+    <t>66 64 68 67 60 60 64 68 70 64 66 66 66 74 69 57 58 64 47 51 55 56 57 65 60 61 64 56 58 64 64 64 65 61 59 64 66 66 66 64 62 67 63 65 68 70 67 67 59 61 65 64 64 65 68 66 64 60 65 65 59 64 62 61 63 62 57 60 64 64 62 63 54 65 64 67 55 65 52 63</t>
+  </si>
+  <si>
+    <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23 19 12 23 14 23</t>
+  </si>
+  <si>
+    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6 24</t>
+  </si>
+  <si>
+    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43 49 51 44 37 43</t>
+  </si>
+  <si>
+    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0 29 0 0 0 2</t>
+  </si>
+  <si>
+    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6 20 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G2">
         <v>98</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>14</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="M2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="N2">
         <v>32</v>
       </c>
       <c r="O2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
-        <v>948</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -730,19 +730,19 @@
         <v>60</v>
       </c>
       <c r="F3">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>21</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="M2">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="N2">
         <v>33</v>
       </c>
       <c r="O2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2">
-        <v>898</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>415</v>
       </c>
       <c r="N3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
         <v>62</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1245,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Browns/Team Data.xlsx
+++ b/Base/Teams/Browns/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0</t>
-  </si>
-  <si>
-    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6</t>
-  </si>
-  <si>
-    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3</t>
-  </si>
-  <si>
-    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15</t>
+    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 1 1 1 27 11 17 3 8 3 12 5 8 13 8 15 13 3 3 12 8 30 4 10 4</t>
+  </si>
+  <si>
+    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 7 40 12 8 8 11 24 14 1 16 5 3 10 10 12 3 11 10 5 7</t>
+  </si>
+  <si>
+    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 0 4 8 2 13 8 3 2 3 3 27 6 6 6 3 10 7 1 -1 6 5 4</t>
+  </si>
+  <si>
+    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 1 8 4 33 4 6 11 34 1 9 2 -2 10 9 12 1 10 1 17 10 1 9 7 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 64 68 67 60 60 64 68 70 64 66 66 66 74 69 57 58 64 47 51 55 56 57 65 60 61 64 56 58 64 64 64 65 61 59 64 66 66 66 64 62 67 63 65 68 70 67 67 59 61 65 64 64 65 68 66 64 60 65 65 59 64 62 61 63 62 57 60 64 64 62 63 54 65 64 67 55 65 52 63</t>
-  </si>
-  <si>
-    <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23 19 12 23 14 23</t>
-  </si>
-  <si>
-    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6 24</t>
-  </si>
-  <si>
-    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43 49 51 44 37 43</t>
-  </si>
-  <si>
-    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0 29 0 0 0 2</t>
-  </si>
-  <si>
-    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6 20 0 0 0</t>
+    <t>66 64 68 67 60 60 64 68 70 64 66 66 66 74 69 57 58 64 47 51 55 56 57 65 60 61 64 56 58 64 64 64 65 61 59 64 66 66 66 64 62 67 63 65 68 70 67 67 59 61 65 64 64 65 68 66 64 60 65 65 59 64 62 61 63 62 57 60 64 64 62 63 54 65 64 67 55 65 52 63 62 60</t>
+  </si>
+  <si>
+    <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23 19 12 23 14 23 21 27</t>
+  </si>
+  <si>
+    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6 24 24 28 16 15</t>
+  </si>
+  <si>
+    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43 49 51 44 37 43 37</t>
+  </si>
+  <si>
+    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0 29 0 0 0 2 9</t>
+  </si>
+  <si>
+    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6 20 0 0 0 4 0 15 0 8</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>14</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>296</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>1003</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="M3">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="N3">
         <v>32</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>981</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -952,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="O2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>967</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="M3">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="N3">
         <v>42</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1044</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -1371,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Browns/Team Data.xlsx
+++ b/Base/Teams/Browns/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 1 1 1 27 11 17 3 8 3 12 5 8 13 8 15 13 3 3 12 8 30 4 10 4</t>
-  </si>
-  <si>
-    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 7 40 12 8 8 11 24 14 1 16 5 3 10 10 12 3 11 10 5 7</t>
-  </si>
-  <si>
-    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 0 4 8 2 13 8 3 2 3 3 27 6 6 6 3 10 7 1 -1 6 5 4</t>
-  </si>
-  <si>
-    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 1 8 4 33 4 6 11 34 1 9 2 -2 10 9 12 1 10 1 17 10 1 9 7 4</t>
+    <t>11 0 4 2 29 22 1 3 8 3 0 0 0 4 1 3 2 10 10 9 4 3 4 3 2 7 5 -2 4 5 1 3 6 8 6 11 1 13 -1 6 6 2 1 3 6 11 2 22 0 -1 1 4 4 11 10 6 4 26 33 1 10 1 2 2 0 1 2 4 8 3 3 2 1 16 1 -1 11 4 4 5 1 5 -7 6 25 0 9 4 2 0 20 5 3 7 0 -1 4 11 -4 21 -2 9 2 3 23 12 8 4 10 12 28 10 2 4 6 12 2 6 8 9 3 14 4 1 5 11 -2 3 2 9 7 2 -5 6 50 8 4 4 4 2 2 2 1 1 0 0 3 16 0 1 2 3 6 8 0 6 2 -1 6 3 6 3 2 1 1 10 1 28 2 1 -2 2 5 4 10 7 -1 6 0 3 3 0 5 2 -1 5 19 8 1 1 6 11 5 12 -4 15 2 3 -1 5 -3 3 0 5 2 3 0 3 11 2 3 10 11 0 4 3 6 2 18 -2 0 3 6 2 6 4 13 2 1 8 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 1 0 0 9 3 -1 2 -1 3 -2 3 2 6 -1 3 3 2 -9 9 -3 7 11 1 4 54 2 5 3 0 10 6 2 0 4 2 -1 0 -1 8 4 4 7 4 7 -1 6 9 4 13 7 6 2 13 29 27 2 1 0 2 7 21 8 1 12 4 4 3 14 8 0 4 -1 -1 -1 0 2 3 4 3 4 4 1 1 2 1 4 29 0 2 1 2 8 5 2 4 0 0 5 3 1 1 3 3 7 2 2 7 4 2 3 8 14 1 11 5 4 5 -1 2 10 2 4 5 7 3 6 13 1 4 4 3 1 5 -2 1 2 -1 4 14 4 4 4 -1 6 5 3 15 4 1 2 -2 0 1 1 21 -1 3 1 -1 0 2 -1 0 1 4 -2 1 4 1 5 16 6 2 4 3 11 3 47 0 4 4 13 8 2 -1 3 12 4 5 2 3 2 28 4 3 3 1 4 2 8 2 5 8 0 3 17 20 1 11 0 8 0 12 -1 13 4 6 12 6 1 2 2 2 0 1 9 1 1 0 3 0 -1 2 5 6 0 6 4 -3 23 18 2 9 3 7 6 1 10 4 4 3 0 -1 2 6 7 -1 6 4 2 4 17 8 18 5 15 6 17 4 2 6 7 6 2 2 -2 5 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 4 3 4 5 3 4 2 4 5 2 3 2 5 2 9 6 1 0 1 33 3 12 13 2 1 6 8 1 2 6 2 2 9 1 13 0 2 3 20 13 -1 12 0 9 7 5 5 -5 1 8 6 2 6 -1 7 5 8 1 0 3 6 52 4 1 1 1 8 24 7 8 1 3 0 5 2 2 -2 4 17 11 0 5 -1 -3 9 3 2 11 3 3 2 20 10 4 12 1 9 2 1 2 5 10 11 2 3 3 2 0 9 1 6 1 9 5 -2 20 6 3 7 3 5 8 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 11 22 0 1 2 3 0 1 70 7 1 -2 13 10 2 3 2 -1 -1 -4 6 4 3 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 -1 14 2 1 1 12 4 16 1 1 5 13 2 0 6 2 5 10 0 0 9 7 20 5 3 11 3 3 4 11 15 5 3 3 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 1 1 1 27 11 17 3 8 3 12 5 8 13 8 15 13 3 3 12 8 30 4 10 4 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2</t>
+  </si>
+  <si>
+    <t>5 6 16 6 1 8 13 9 1 16 28 8 5 21 3 -2 4 0 9 12 10 3 3 8 9 26 11 9 43 7 16 18 9 13 6 0 11 6 14 10 12 7 6 18 2 10 11 8 9 15 13 3 15 9 11 37 16 5 16 10 4 11 1 11 9 13 12 6 7 14 11 1 2 5 8 32 17 6 18 11 30 7 2 9 26 6 15 3 10 13 18 4 8 6 13 11 12 12 8 36 5 13 13 6 3 -6 24 13 8 7 28 -6 10 11 3 35 8 4 12 6 4 6 21 21 16 20 19 12 8 13 8 30 24 6 5 19 5 3 6 9 19 1 14 10 25 9 9 6 18 11 18 12 6 10 21 2 10 13 13 43 21 7 10 5 42 9 18 13 10 21 14 11 5 17 27 4 23 15 9 13 4 5 15 14 19 19 13 10 35 5 4 26 6 7 8 7 6 1 75 11 21 5 12 17 17 13 8 8 16 7 13 0 20 10 12 4 11 9 4 4 11 37 7 18 1 9 14 9 26 6 5 12 8 10 30 7 16 22 3 5 8 17 4 6 17 10 22 9 2 7 18 15 22 5 2 12 18 20 8 22 6 17 8 19 -5 5 28 7 5 6 13 14 8 7 4 8 9 10 4 12 7 15 22 9 11 8 17 3 8 4 24 8 9 14 10 11 12 4 42 11 5 14 13 14 10 2 -1 15 13 7 6 40 4 12 7 1 21 8 5 7 7 16 8 17 14 40 13 17 7 8 5 27 11 -3 3 7 -8 26 26 23 25 18 0 4 2 6 17 4 3 4 5 2 8 14 16 8 44 17 3 9 10 9 43 11 9 30 4 10 3 4 19 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 3 11 21 8 3 3 9 8 9 12 11 5 9 24 19 9 22 31 12 7 42 1 2 5 16 9 6 8 13 11 -1 7 71 13 6 3 2 10 4 25 20 4 17 10 5 11 5 7 6 57 24 13 3 6 6 7 6 7 34 4 5 14 8 4 6 9 15 6 12 -2 6 17 16 18 1 4 8 7 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 23 3 11 60 15 6 5 22 7 -2 21 26 18 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 13 9 21 20 3 7 17 6 20 3 5 7 9 37 -1 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 7 40 12 8 8 11 24 14 1 16 5 3 10 10 12 3 11 10 5 7 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7</t>
+  </si>
+  <si>
+    <t>6 8 0 -2 15 2 2 -2 5 3 6 0 2 5 12 2 3 3 0 4 2 2 0 16 2 5 -2 13 -1 4 5 0 5 11 3 2 1 6 -1 5 3 -4 -7 9 5 5 1 5 -5 3 22 3 3 2 0 3 3 0 9 2 6 2 7 6 6 13 3 0 5 4 3 1 4 3 -1 5 3 9 0 2 24 1 5 2 3 -2 3 5 8 11 1 3 3 3 5 6 1 5 0 9 7 2 2 10 4 4 5 12 7 3 1 3 2 14 3 -4 13 6 3 4 4 2 8 3 5 1 3 8 6 4 5 5 0 3 1 2 -3 -1 7 0 1 1 8 1 3 5 3 5 7 7 4 1 -3 12 12 6 1 2 6 5 0 4 9 11 -2 7 8 2 7 1 4 7 4 6 5 1 8 3 1 11 3 5 2 1 3 14 6 7 1 5 4 18 1 0 0 2 16 5 2 3 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 0 9 11 5 3 4 5 11 1 2 7 3 6 6 11 9 3 -1 1 -1 7 1 0 2 1 4 8 5 5 1 15 13 4 2 1 2 3 6 2 3 2 4 5 2 2 11 3 27 6 4 3 7 2 -3 5 0 10 3 -1 9 3 9 5 0 7 1 1 5 7 4 13 6 1 5 11 4 10 13 1 20 11 2 4 17 1 44 19 3 1 2 4 1 4 0 5 8 6 2 -3 9 2 2 5 -3 7 8 2 0 2 12 4 4 4 3 1 -3 1 14 6 1 0 6 3 2 14 5 11 7 2 6 5 7 3 5 1 6 -2 -1 3 4 3 7 9 6 4 1 4 2 4 2 4 3 9 7 3 1 4 3 5 -1 13 7 0 6 1 7 4 1 6 0 3 9 0 2 6 3 0 5 1 3 2 1 11 5 4 12 6 4 2 1 2 4 9 13 4 1 0 16 4 1 9 2 2 13 -2 4 4 1 2 5 3 4 4 3 8 9 7 1 2 5 4 7 0 4 0 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 16 1 7 0 -2 1 6 4 2 1 5 4 1 1 11 2 4 1 0 1 10 5 -1 -2 2 1 6 6 -2 13 2 2 2 2 8 11 2 3 10 5 2 14 3 1 9 2 6 2 4 1 4 4 8 4 40 3 5 0 9 4 0 1 0 -5 3 5 2 4 4 3 0 5 1 4 -2 3 3 -1 9 2 16 3 7 -2 3 7 2 1 6 0 2 7 3 3 5 2 0 7 2 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 2 1 2 0 3 3 7 4 3 0 21 2 2 4 0 1 2 5 0 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 3 3 -1 1 21 9 -2 3 -1 5 0 12 4 19 2 57 5 13 7 2 1 0 5 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 0 4 8 2 13 8 3 2 3 3 27 6 6 6 3 10 7 1 -1 6 5 4 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37</t>
+  </si>
+  <si>
+    <t>12 47 9 25 21 4 16 20 13 16 11 9 4 21 19 12 -1 2 7 10 9 8 13 4 5 7 18 23 5 11 6 18 6 14 5 15 12 5 5 9 4 5 6 3 6 5 4 10 9 8 7 12 21 6 17 14 33 -5 -5 5 12 4 26 6 5 11 -1 14 10 12 25 18 43 10 13 9 19 5 6 17 0 7 3 7 6 7 10 11 14 13 18 7 16 11 12 9 26 12 5 14 9 16 5 12 10 12 6 11 16 7 13 36 11 14 1 34 4 9 4 18 13 6 11 6 13 10 10 4 1 18 27 4 1 5 7 7 36 8 28 6 5 2 7 23 6 6 17 -2 29 14 13 10 7 22 25 4 4 3 7 27 5 23 13 9 11 16 6 10 16 5 6 9 14 16 10 16 12 15 25 9 2 7 13 4 17 8 4 12 1 9 6 11 6 4 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 22 16 32 3 1 4 12 19 8 29 4 3 9 5 7 7 14 7 4 11 -2 8 13 7 20 46 18 6 6 9 2 6 20 4 13 10 17 7 18 12 40 17 1 3 13 14 19 43 18 22 18 9 11 5 6 4 14 6 11 8 3 14 9 4 10 39 6 15 7 13 14 14 6 4 22 35 -1 12 9 14 0 7 1 21 8 10 14 13 24 5 9 12 6 13 17 9 9 43 11 5 12 7 25 30 14 5 2 5 0 11 13 5 -3 9 2 9 41 0 1 12 11 26 5 3 41 8 7 14 10 3 13 47 2 2 4 5 11 11 9 6 14 1 5 4 5 17 10 27 7 6 4 5 11 15 7 9 10 12 4 10 15 17 1 15 27 15 4 -2 7 7 15 25 29 1 5 9 19 18 7 7 26 -1 9 42 9 11 20 8 14 8 15 -5 9 7 3 13 22 16 14 8 5 23 24 4 5 17 9 11 24 9 8 -6 4 11 6 22 19 -2 9 28 6 7 12 6 11 8 3 14 75 8 4 14 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 11 9 9 18 11 10 9 1 11 22 4 12 20 2 3 1 6 20 17 14 -3 31 5 3 19 6 4 18 6 8 22 72 8 -1 7 7 7 7 13 5 14 42 10 5 4 37 21 3 19 29 0 15 21 10 8 5 13 -1 10 33 5 0 13 1 34 8 9 20 11 14 6 8 31 1 0 6 6 9 12 13 4 11 9 8 8 5 2 9 10 3 7 9 10 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 11 11 9 20 15 19 16 9 9 5 11 16 6 12 5 5 12 8 11 9 3 3 4 11 11 11 9 11 6 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 12 9 -1 5 3 2 9 -1 10 0 4 -1 6 24 -4 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 1 8 4 33 4 6 11 34 1 9 2 -2 10 9 12 1 10 1 17 10 1 9 7 4 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>38 26 42 45 0 7 26 26 28 27 26 27 1 31 28 20 12 19 24 11 22 24 21 25 18 16 27 14 19 23 26 24 21 48 19 21 19 24 29 21 22 28 25 24 26 24 20 18 19 21 27 22 39 23 31 26 14 13 15 16 23 17 18 21 25 19 14 21 17 22 14 25 13 22 23 19 12 23 14 23 21 27</t>
   </si>
   <si>
-    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6 24 24 28 16 15</t>
-  </si>
-  <si>
-    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43 49 51 44 37 43 37</t>
-  </si>
-  <si>
-    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0 29 0 0 0 2 9</t>
-  </si>
-  <si>
-    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6 20 0 0 0 4 0 15 0 8</t>
+    <t>31 21 32 20 8 15 16 23 17 28 26 24 18 13 21 19 24 33 27 30 13 43 18 32 16 11 16 31 27 21 0 13 31 23 25 28 33 20 30 27 13 25 16 26 30 24 28 16 11 19 35 26 0 10 11 19 20 12 22 18 28 19 25 26 15 21 0 13 6 24 24 28 16 15 21 21 29 21 27 21</t>
+  </si>
+  <si>
+    <t>59 37 41 43 39 43 50 57 40 39 44 43 45 42 51 43 29 30 31 59 50 50 59 50 45 45 44 40 50 37 49 46 43 47 39 37 47 56 35 47 34 39 43 46 32 39 53 38 50 49 40 44 28 44 46 36 47 48 52 43 48 33 49 36 38 54 35 34 53 39 42 54 52 43 65 47 52 56 50 39 34 48 36 58 39 59 33 28 33 38 52 38 47 52 33 40 48 41 38 35 39 41 43 49 51 44 37 43 37 55 36 53 37 42 21 46</t>
+  </si>
+  <si>
+    <t>0 17 9 0 0 1 0 19 3 6 27 4 -5 0 7 4 0 0 0 16 17 11 13 0 0 13 9 0 6 0 10 0 0 6 0 0 0 0 0 0 12 0 9 0 0 0 12 0 0 3 0 0 0 11 5 0 0 8 7 0 4 0 11 0 0 2 0 0 0 0 12 4 4 3 13 0 0 10 19 0 0 14 16 0 0 0 0 0 0 0 17 0 13 22 0 0 1 0 0 0 0 0 0 29 0 0 0 2 9 0 0 15 10 5 0 14</t>
+  </si>
+  <si>
+    <t>1 0 0 13 0 0 11 0 13 0 0 5 4 2 0 0 0 0 9 0 0 2 0 0 12 0 3 7 0 4 0 14 1 15 0 5 0 0 0 6 10 0 0 0 0 3 0 0 0 4 8 0 0 0 4 0 7 15 14 13 11 23 9 14 24 8 8 9 0 2 -2 0 9 8 8 21 3 10 0 0 0 1 0 0 0 -1 5 0 0 12 0 0 0 0 0 -3 8 1 6 20 0 0 0 4 0 15 0 8 4 0 9 9 7</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -677,19 +677,19 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>296</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>1003</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="M3">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="N3">
         <v>32</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1050</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -952,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>327</v>
       </c>
       <c r="N2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>967</v>
@@ -996,37 +996,37 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="M3">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="N3">
         <v>42</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1102</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
